--- a/projects/office_calibration_rgenoud_14_Sys3.xlsx
+++ b/projects/office_calibration_rgenoud_14_Sys3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="866">
   <si>
     <t>type</t>
   </si>
@@ -2525,6 +2525,120 @@
   </si>
   <si>
     <t>AddSys3PSZACNgrid</t>
+  </si>
+  <si>
+    <t>Natural Gas Heating Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.heating_natural_gas</t>
+  </si>
+  <si>
+    <t>Cooling Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.cooling_electricity</t>
+  </si>
+  <si>
+    <t>Interior Lighting Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.interior_lighting_electricity</t>
+  </si>
+  <si>
+    <t>Exterior Lighting Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.exterior_lighting_electricity</t>
+  </si>
+  <si>
+    <t>Equipment Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.interior_equipment_electricity</t>
+  </si>
+  <si>
+    <t>Equipment Natural Gas Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.interior_equipment_natural_gas</t>
+  </si>
+  <si>
+    <t>Experior Equipment Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.exterior_equipment_electricity</t>
+  </si>
+  <si>
+    <t>Fans Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.fans_electricity</t>
+  </si>
+  <si>
+    <t>Pumps Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.pumps_electricity</t>
+  </si>
+  <si>
+    <t>Heat Rejection Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.heat_rejection_electricity</t>
+  </si>
+  <si>
+    <t>Humidification Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.humidification_electricity</t>
+  </si>
+  <si>
+    <t>Water Systems Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.water_systems_electricity</t>
+  </si>
+  <si>
+    <t>Water Systems Natural Gas Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.water_systems_natural_gas</t>
+  </si>
+  <si>
+    <t>Refrigeration Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.refrigeration_electricity</t>
+  </si>
+  <si>
+    <t>Unmet Cooling Hours</t>
+  </si>
+  <si>
+    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>Unmet Heating Hours</t>
+  </si>
+  <si>
+    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
+  </si>
+  <si>
+    <t>Total Unmet Hours</t>
+  </si>
+  <si>
+    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
+  </si>
+  <si>
+    <t>Building Area</t>
+  </si>
+  <si>
+    <t>standard_report.total_building_area</t>
+  </si>
+  <si>
+    <t>m2</t>
   </si>
 </sst>
 </file>
@@ -2534,7 +2648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2608,8 +2722,15 @@
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2688,6 +2809,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4536,7 +4669,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4601,7 +4734,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -4640,6 +4772,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6785,18 +6927,18 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:1" ht="28">
+      <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:1" ht="28">
+      <c r="A2" s="35" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6819,12 +6961,12 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
@@ -6858,7 +7000,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6869,7 +7011,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6880,7 +7022,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6891,18 +7033,18 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="C7" s="33" t="str">
+      <c r="C7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>4 Cores - Recommended for Server</v>
       </c>
-      <c r="D7" s="33" t="str">
+      <c r="D7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$0.28/hour</v>
       </c>
@@ -6910,18 +7052,18 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="C8" s="33" t="str">
+      <c r="C8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>8 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$0.42/hour</v>
       </c>
@@ -6937,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="2" t="s">
         <v>606</v>
       </c>
@@ -6995,7 +7137,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7028,7 +7170,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7053,7 +7195,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7080,7 +7222,7 @@
       <c r="C24" s="30" t="s">
         <v>579</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:5" s="31" customFormat="1">
       <c r="A25" s="31" t="s">
@@ -7092,7 +7234,7 @@
       <c r="C25" s="30" t="s">
         <v>578</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:5" s="31" customFormat="1">
       <c r="A26" s="31" t="s">
@@ -7104,7 +7246,7 @@
       <c r="C26" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="A27" s="30" t="s">
@@ -7116,7 +7258,7 @@
       <c r="C27" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
@@ -7128,7 +7270,7 @@
       <c r="C28" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="A29" s="31" t="s">
@@ -7140,7 +7282,7 @@
       <c r="C29" s="31" t="s">
         <v>577</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
@@ -7152,7 +7294,7 @@
       <c r="C30" s="30" t="s">
         <v>576</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="A31" s="31" t="s">
@@ -7164,7 +7306,7 @@
       <c r="C31" s="30" t="s">
         <v>575</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="A32" s="31" t="s">
@@ -7176,7 +7318,7 @@
       <c r="C32" s="30" t="s">
         <v>574</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:5" s="31" customFormat="1">
       <c r="A33" s="31" t="s">
@@ -7186,7 +7328,7 @@
         <v>540</v>
       </c>
       <c r="C33" s="30"/>
-      <c r="D33" s="35"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="A34" s="31" t="s">
@@ -7198,7 +7340,7 @@
       <c r="C34" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="A35" s="31" t="s">
@@ -7207,12 +7349,12 @@
       <c r="B35" s="30">
         <v>1</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>768</v>
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7233,7 +7375,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7262,7 +7404,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7318,34 +7460,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33:D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18">
@@ -7367,23 +7509,23 @@
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="36" t="s">
         <v>474</v>
       </c>
       <c r="P1" s="23"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7399,7 +7541,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7473,24 +7615,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1">
-      <c r="A4" s="38" t="b">
+    <row r="4" spans="1:25" s="37" customFormat="1">
+      <c r="A4" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>710</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>711</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>711</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
@@ -7526,24 +7668,24 @@
         <v>712</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1">
-      <c r="A7" s="38" t="b">
+    <row r="7" spans="1:25" s="37" customFormat="1">
+      <c r="A7" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>660</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
@@ -7567,7 +7709,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="P8" s="40"/>
+      <c r="P8" s="39"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:25">
@@ -7647,26 +7789,26 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1">
-      <c r="A13" s="38" t="b">
+    <row r="13" spans="1:25" s="37" customFormat="1">
+      <c r="A13" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>717</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>716</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>716</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="1:25" ht="17.399999999999999">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:25" ht="17">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -7684,44 +7826,44 @@
       <c r="G14" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="51">
         <v>104666</v>
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1">
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="1:25" s="42" customFormat="1">
+      <c r="B15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="42" t="s">
         <v>662</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="43">
-        <v>2</v>
-      </c>
-      <c r="J15" s="43">
+      <c r="H15" s="42">
+        <v>2</v>
+      </c>
+      <c r="J15" s="42">
         <v>1</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="42">
         <v>5</v>
       </c>
-      <c r="L15" s="43">
-        <v>2</v>
-      </c>
-      <c r="M15" s="43">
+      <c r="L15" s="42">
+        <v>2</v>
+      </c>
+      <c r="M15" s="42">
         <f>(K15-J15)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="42">
         <v>0.25</v>
       </c>
-      <c r="Q15" s="51" t="s">
+      <c r="Q15" s="50" t="s">
         <v>754</v>
       </c>
     </row>
@@ -7742,42 +7884,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="43" customFormat="1">
-      <c r="B17" s="43" t="s">
+    <row r="17" spans="1:17" s="42" customFormat="1">
+      <c r="B17" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="42" t="s">
         <v>663</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="42" t="s">
         <v>745</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="42">
         <v>12</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="42">
         <v>8</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="42">
         <v>20</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="42">
         <v>10</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="42">
         <f>(K17-J17)/6</f>
         <v>2</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="42">
         <v>0.5</v>
       </c>
-      <c r="Q17" s="51" t="s">
+      <c r="Q17" s="50" t="s">
         <v>754</v>
       </c>
     </row>
@@ -7794,7 +7936,7 @@
       <c r="F18" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="41">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -7811,7 +7953,7 @@
       <c r="F19" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <v>0.15</v>
       </c>
     </row>
@@ -7828,7 +7970,7 @@
       <c r="F20" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <v>0.02</v>
       </c>
     </row>
@@ -7845,7 +7987,7 @@
       <c r="F21" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>0.08</v>
       </c>
     </row>
@@ -7862,7 +8004,7 @@
       <c r="F22" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <v>0.12</v>
       </c>
     </row>
@@ -7879,7 +8021,7 @@
       <c r="F23" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="41">
         <v>0.02</v>
       </c>
     </row>
@@ -7896,7 +8038,7 @@
       <c r="F24" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -7913,7 +8055,7 @@
       <c r="F25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="41">
         <v>0.06</v>
       </c>
     </row>
@@ -7930,7 +8072,7 @@
       <c r="F26" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -7947,7 +8089,7 @@
       <c r="F27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="41">
         <v>0.04</v>
       </c>
     </row>
@@ -7964,7 +8106,7 @@
       <c r="F28" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="41">
         <v>0.03</v>
       </c>
     </row>
@@ -7981,7 +8123,7 @@
       <c r="F29" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="41">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -7998,28 +8140,28 @@
       <c r="F30" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1">
-      <c r="A31" s="38" t="b">
+    <row r="31" spans="1:17" s="37" customFormat="1">
+      <c r="A31" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="37" t="s">
         <v>664</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>665</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>665</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:17">
       <c r="B32" s="31" t="s">
@@ -8037,173 +8179,173 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1">
-      <c r="A33" s="38" t="b">
+    <row r="33" spans="1:17" s="37" customFormat="1">
+      <c r="A33" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>826</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>827</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="37" t="s">
         <v>827</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-    </row>
-    <row r="34" spans="1:17" s="43" customFormat="1">
-      <c r="B34" s="43" t="s">
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:17" s="42" customFormat="1">
+      <c r="B34" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="42" t="s">
         <v>761</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="42" t="s">
         <v>762</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="42">
         <v>0.8</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="42">
         <v>0.6</v>
       </c>
-      <c r="K34" s="43">
+      <c r="K34" s="42">
         <v>0.95</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="42">
         <v>0.8</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="42">
         <f>(K34-J34)/6</f>
         <v>5.8333333333333327E-2</v>
       </c>
-      <c r="N34" s="43">
+      <c r="N34" s="42">
         <v>0.05</v>
       </c>
-      <c r="Q34" s="43" t="s">
+      <c r="Q34" s="42" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="43" customFormat="1">
-      <c r="B35" s="43" t="s">
+    <row r="35" spans="1:17" s="42" customFormat="1">
+      <c r="B35" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="42" t="s">
         <v>763</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="42" t="s">
         <v>764</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="42">
         <v>3</v>
       </c>
-      <c r="J35" s="43">
+      <c r="J35" s="42">
         <v>2.5</v>
       </c>
-      <c r="K35" s="43">
+      <c r="K35" s="42">
         <v>5</v>
       </c>
-      <c r="L35" s="43">
+      <c r="L35" s="42">
         <v>3</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="42">
         <f>(K35-J35)/6</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="N35" s="43">
+      <c r="N35" s="42">
         <v>0.05</v>
       </c>
-      <c r="Q35" s="43" t="s">
+      <c r="Q35" s="42" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="38" customFormat="1">
-      <c r="A36" s="38" t="b">
+    <row r="36" spans="1:17" s="37" customFormat="1">
+      <c r="A36" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>772</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-    </row>
-    <row r="37" spans="1:17" s="43" customFormat="1">
-      <c r="B37" s="43" t="s">
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:17" s="42" customFormat="1">
+      <c r="B37" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="42" t="s">
         <v>773</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="42" t="s">
         <v>619</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="G37" s="42" t="s">
         <v>774</v>
       </c>
-      <c r="H37" s="43">
-        <v>0</v>
-      </c>
-      <c r="J37" s="43">
-        <v>0</v>
-      </c>
-      <c r="K37" s="43">
+      <c r="H37" s="42">
+        <v>0</v>
+      </c>
+      <c r="J37" s="42">
+        <v>0</v>
+      </c>
+      <c r="K37" s="42">
         <v>90</v>
       </c>
-      <c r="L37" s="43">
-        <v>0</v>
-      </c>
-      <c r="M37" s="43">
+      <c r="L37" s="42">
+        <v>0</v>
+      </c>
+      <c r="M37" s="42">
         <f>(K37-J37)/6</f>
         <v>15</v>
       </c>
-      <c r="N37" s="43">
+      <c r="N37" s="42">
         <v>5</v>
       </c>
-      <c r="Q37" s="43" t="s">
+      <c r="Q37" s="42" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="38" customFormat="1">
-      <c r="A38" s="38" t="b">
+    <row r="38" spans="1:17" s="37" customFormat="1">
+      <c r="A38" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="37" t="s">
         <v>679</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
@@ -8238,7 +8380,7 @@
       <c r="N39" s="31">
         <v>0.01</v>
       </c>
-      <c r="P39" s="40"/>
+      <c r="P39" s="39"/>
       <c r="Q39" s="31" t="s">
         <v>754</v>
       </c>
@@ -8268,7 +8410,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="P40" s="40"/>
+      <c r="P40" s="39"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17">
@@ -8293,24 +8435,24 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1">
-      <c r="A42" s="38" t="b">
+    <row r="42" spans="1:17" s="37" customFormat="1">
+      <c r="A42" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="37" t="s">
         <v>686</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
@@ -8345,7 +8487,7 @@
       <c r="N43" s="31">
         <v>0.01</v>
       </c>
-      <c r="P43" s="40"/>
+      <c r="P43" s="39"/>
       <c r="Q43" s="31" t="s">
         <v>754</v>
       </c>
@@ -8375,7 +8517,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="P44" s="40"/>
+      <c r="P44" s="39"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17">
@@ -8400,24 +8542,24 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1">
-      <c r="A46" s="38" t="b">
+    <row r="46" spans="1:17" s="37" customFormat="1">
+      <c r="A46" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="37" t="s">
         <v>687</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
@@ -8452,7 +8594,7 @@
       <c r="N47" s="31">
         <v>0.01</v>
       </c>
-      <c r="P47" s="40"/>
+      <c r="P47" s="39"/>
       <c r="Q47" s="31" t="s">
         <v>754</v>
       </c>
@@ -8482,7 +8624,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="P48" s="40"/>
+      <c r="P48" s="39"/>
       <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17">
@@ -8507,24 +8649,24 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1">
-      <c r="A50" s="38" t="b">
+    <row r="50" spans="1:17" s="37" customFormat="1">
+      <c r="A50" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
@@ -8559,7 +8701,7 @@
       <c r="N51" s="31">
         <v>0.01</v>
       </c>
-      <c r="P51" s="40"/>
+      <c r="P51" s="39"/>
       <c r="Q51" s="31" t="s">
         <v>754</v>
       </c>
@@ -8589,7 +8731,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="P52" s="40"/>
+      <c r="P52" s="39"/>
       <c r="Q52" s="2"/>
     </row>
     <row r="53" spans="1:17">
@@ -8614,24 +8756,24 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1">
-      <c r="A54" s="38" t="b">
+    <row r="54" spans="1:17" s="37" customFormat="1">
+      <c r="A54" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="37" t="s">
         <v>690</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="E54" s="38" t="s">
+      <c r="E54" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
@@ -8682,7 +8824,7 @@
       <c r="F57" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H57" s="41" t="s">
+      <c r="H57" s="40" t="s">
         <v>806</v>
       </c>
       <c r="I57" s="31"/>
@@ -8700,29 +8842,29 @@
       <c r="F58" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="40" t="s">
         <v>807</v>
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1">
-      <c r="A59" s="38" t="b">
+    <row r="59" spans="1:17" s="37" customFormat="1">
+      <c r="A59" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="E59" s="38" t="s">
+      <c r="E59" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:17">
       <c r="B60" s="31" t="s">
@@ -8742,115 +8884,115 @@
       </c>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" spans="1:17" s="43" customFormat="1">
-      <c r="B61" s="43" t="s">
+    <row r="61" spans="1:17" s="42" customFormat="1">
+      <c r="B61" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="42" t="s">
         <v>813</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="E61" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="42" t="s">
         <v>619</v>
       </c>
-      <c r="G61" s="43" t="s">
+      <c r="G61" s="42" t="s">
         <v>815</v>
       </c>
-      <c r="H61" s="43">
+      <c r="H61" s="42">
         <v>1</v>
       </c>
-      <c r="J61" s="45">
+      <c r="J61" s="44">
         <v>0.25</v>
       </c>
-      <c r="K61" s="45">
+      <c r="K61" s="44">
         <v>4</v>
       </c>
-      <c r="L61" s="45">
+      <c r="L61" s="44">
         <v>1</v>
       </c>
-      <c r="M61" s="43">
+      <c r="M61" s="42">
         <f>(K61-J61)/6</f>
         <v>0.625</v>
       </c>
-      <c r="N61" s="43">
+      <c r="N61" s="42">
         <v>0.01</v>
       </c>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="43" t="s">
+      <c r="P61" s="46"/>
+      <c r="Q61" s="42" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="38" customFormat="1">
-      <c r="A62" s="38" t="b">
+    <row r="62" spans="1:17" s="37" customFormat="1">
+      <c r="A62" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>704</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="37" t="s">
         <v>703</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="37" t="s">
         <v>703</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-    </row>
-    <row r="63" spans="1:17" s="49" customFormat="1">
-      <c r="A63" s="49" t="b">
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="1:17" s="48" customFormat="1">
+      <c r="A63" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="48" t="s">
         <v>752</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="43" customFormat="1">
-      <c r="B64" s="43" t="s">
+    <row r="64" spans="1:17" s="42" customFormat="1">
+      <c r="B64" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="42" t="s">
         <v>753</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H64" s="43">
+      <c r="H64" s="42">
         <v>0.4</v>
       </c>
-      <c r="J64" s="43">
+      <c r="J64" s="42">
         <v>0.05</v>
       </c>
-      <c r="K64" s="43">
+      <c r="K64" s="42">
         <v>0.8</v>
       </c>
-      <c r="L64" s="43">
+      <c r="L64" s="42">
         <v>0.4</v>
       </c>
-      <c r="M64" s="43">
+      <c r="M64" s="42">
         <f>(K64+J64)/6</f>
         <v>0.14166666666666669</v>
       </c>
-      <c r="N64" s="43">
+      <c r="N64" s="42">
         <v>0.05</v>
       </c>
-      <c r="Q64" s="43" t="s">
+      <c r="Q64" s="42" t="s">
         <v>754</v>
       </c>
     </row>
@@ -8891,56 +9033,56 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="49" customFormat="1">
-      <c r="A67" s="49" t="b">
+    <row r="67" spans="1:17" s="48" customFormat="1">
+      <c r="A67" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="48" t="s">
         <v>755</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="49" t="s">
+      <c r="E67" s="48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="43" customFormat="1">
-      <c r="B68" s="43" t="s">
+    <row r="68" spans="1:17" s="42" customFormat="1">
+      <c r="B68" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="42" t="s">
         <v>756</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E68" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="43">
+      <c r="H68" s="42">
         <v>0.4</v>
       </c>
-      <c r="J68" s="43">
+      <c r="J68" s="42">
         <v>0.05</v>
       </c>
-      <c r="K68" s="43">
+      <c r="K68" s="42">
         <v>0.8</v>
       </c>
-      <c r="L68" s="43">
+      <c r="L68" s="42">
         <v>0.4</v>
       </c>
-      <c r="M68" s="43">
+      <c r="M68" s="42">
         <f>(K68+J68)/6</f>
         <v>0.14166666666666669</v>
       </c>
-      <c r="N68" s="43">
+      <c r="N68" s="42">
         <v>0.05</v>
       </c>
-      <c r="Q68" s="43" t="s">
+      <c r="Q68" s="42" t="s">
         <v>754</v>
       </c>
     </row>
@@ -8981,56 +9123,56 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="49" customFormat="1">
-      <c r="A71" s="49" t="b">
+    <row r="71" spans="1:17" s="48" customFormat="1">
+      <c r="A71" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="48" t="s">
         <v>757</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="49" t="s">
+      <c r="D71" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="49" t="s">
+      <c r="E71" s="48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="43" customFormat="1">
-      <c r="B72" s="43" t="s">
+    <row r="72" spans="1:17" s="42" customFormat="1">
+      <c r="B72" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="42" t="s">
         <v>758</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="E72" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F72" s="43" t="s">
+      <c r="F72" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H72" s="43">
+      <c r="H72" s="42">
         <v>0.4</v>
       </c>
-      <c r="J72" s="43">
+      <c r="J72" s="42">
         <v>0.05</v>
       </c>
-      <c r="K72" s="43">
+      <c r="K72" s="42">
         <v>0.8</v>
       </c>
-      <c r="L72" s="43">
+      <c r="L72" s="42">
         <v>0.4</v>
       </c>
-      <c r="M72" s="43">
+      <c r="M72" s="42">
         <f>(K72+J72)/6</f>
         <v>0.14166666666666669</v>
       </c>
-      <c r="N72" s="43">
+      <c r="N72" s="42">
         <v>0.05</v>
       </c>
-      <c r="Q72" s="43" t="s">
+      <c r="Q72" s="42" t="s">
         <v>754</v>
       </c>
     </row>
@@ -9071,20 +9213,20 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="49" customFormat="1">
-      <c r="A75" s="49" t="b">
+    <row r="75" spans="1:17" s="48" customFormat="1">
+      <c r="A75" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="49" t="s">
+      <c r="D75" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="49" t="s">
+      <c r="E75" s="48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -9109,39 +9251,39 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="43" customFormat="1">
-      <c r="B77" s="43" t="s">
+    <row r="77" spans="1:17" s="42" customFormat="1">
+      <c r="B77" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="43" t="s">
         <v>824</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F77" s="43" t="s">
+      <c r="F77" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H77" s="43">
-        <v>0</v>
-      </c>
-      <c r="J77" s="45">
+      <c r="H77" s="42">
+        <v>0</v>
+      </c>
+      <c r="J77" s="44">
         <v>-100</v>
       </c>
-      <c r="K77" s="45">
+      <c r="K77" s="44">
         <v>100</v>
       </c>
-      <c r="L77" s="45">
-        <v>0</v>
-      </c>
-      <c r="M77" s="45">
+      <c r="L77" s="44">
+        <v>0</v>
+      </c>
+      <c r="M77" s="44">
         <f>(K77-J77)/6</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="N77" s="45">
+      <c r="N77" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q77" s="43" t="s">
+      <c r="Q77" s="42" t="s">
         <v>754</v>
       </c>
     </row>
@@ -9162,39 +9304,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:17" s="43" customFormat="1">
-      <c r="B79" s="43" t="s">
+    <row r="79" spans="1:17" s="42" customFormat="1">
+      <c r="B79" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="44" t="s">
+      <c r="D79" s="43" t="s">
         <v>819</v>
       </c>
-      <c r="E79" s="43" t="s">
+      <c r="E79" s="42" t="s">
         <v>818</v>
       </c>
-      <c r="F79" s="43" t="s">
+      <c r="F79" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H79" s="43">
-        <v>0</v>
-      </c>
-      <c r="J79" s="45">
-        <v>0</v>
-      </c>
-      <c r="K79" s="45">
+      <c r="H79" s="42">
+        <v>0</v>
+      </c>
+      <c r="J79" s="44">
+        <v>0</v>
+      </c>
+      <c r="K79" s="44">
         <v>0.1</v>
       </c>
-      <c r="L79" s="45">
+      <c r="L79" s="44">
         <v>0.05</v>
       </c>
-      <c r="M79" s="45">
+      <c r="M79" s="44">
         <f>(K79-J79)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="N79" s="45">
+      <c r="N79" s="44">
         <v>0.01</v>
       </c>
-      <c r="Q79" s="43" t="s">
+      <c r="Q79" s="42" t="s">
         <v>754</v>
       </c>
     </row>
@@ -9284,20 +9426,20 @@
       </c>
       <c r="O84" s="31"/>
     </row>
-    <row r="85" spans="1:17" s="50" customFormat="1">
-      <c r="A85" s="50" t="b">
+    <row r="85" spans="1:17" s="49" customFormat="1">
+      <c r="A85" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B85" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C85" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E85" s="50" t="s">
+      <c r="E85" s="49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -9328,43 +9470,43 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
-      <c r="P86" s="40"/>
-    </row>
-    <row r="87" spans="1:17" s="43" customFormat="1">
-      <c r="B87" s="43" t="s">
+      <c r="P86" s="39"/>
+    </row>
+    <row r="87" spans="1:17" s="42" customFormat="1">
+      <c r="B87" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="43" t="s">
+      <c r="D87" s="42" t="s">
         <v>759</v>
       </c>
-      <c r="E87" s="43" t="s">
+      <c r="E87" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="43" t="s">
+      <c r="F87" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H87" s="43">
-        <v>0</v>
-      </c>
-      <c r="I87" s="46"/>
-      <c r="J87" s="45">
+      <c r="H87" s="42">
+        <v>0</v>
+      </c>
+      <c r="I87" s="45"/>
+      <c r="J87" s="44">
         <v>-60</v>
       </c>
-      <c r="K87" s="45">
+      <c r="K87" s="44">
         <v>60</v>
       </c>
-      <c r="L87" s="45">
+      <c r="L87" s="44">
         <v>-1</v>
       </c>
-      <c r="M87" s="45">
+      <c r="M87" s="44">
         <f>(K87-J87)/6</f>
         <v>20</v>
       </c>
-      <c r="N87" s="45">
+      <c r="N87" s="44">
         <v>2.5</v>
       </c>
-      <c r="P87" s="47"/>
-      <c r="Q87" s="43" t="s">
+      <c r="P87" s="46"/>
+      <c r="Q87" s="42" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9374,7 +9516,7 @@
         <v>21</v>
       </c>
       <c r="C88" s="30"/>
-      <c r="D88" s="48" t="s">
+      <c r="D88" s="47" t="s">
         <v>47</v>
       </c>
       <c r="E88" s="30" t="s">
@@ -9392,7 +9534,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
-      <c r="P88" s="40"/>
+      <c r="P88" s="39"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="30"/>
@@ -9418,7 +9560,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
-      <c r="P89" s="40"/>
+      <c r="P89" s="39"/>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="30"/>
@@ -9444,7 +9586,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-      <c r="P90" s="40"/>
+      <c r="P90" s="39"/>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="30"/>
@@ -9470,7 +9612,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
-      <c r="P91" s="40"/>
+      <c r="P91" s="39"/>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="30"/>
@@ -9496,7 +9638,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
-      <c r="P92" s="40"/>
+      <c r="P92" s="39"/>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="30"/>
@@ -9522,7 +9664,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
-      <c r="P93" s="40"/>
+      <c r="P93" s="39"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="30"/>
@@ -9548,22 +9690,22 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
-      <c r="P94" s="40"/>
-    </row>
-    <row r="95" spans="1:17" s="50" customFormat="1">
-      <c r="A95" s="50" t="b">
+      <c r="P94" s="39"/>
+    </row>
+    <row r="95" spans="1:17" s="49" customFormat="1">
+      <c r="A95" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B95" s="50" t="s">
+      <c r="B95" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="C95" s="50" t="s">
+      <c r="C95" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="E95" s="50" t="s">
+      <c r="E95" s="49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -9594,167 +9736,167 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
-      <c r="P96" s="40"/>
-    </row>
-    <row r="97" spans="1:17" s="43" customFormat="1">
-      <c r="B97" s="43" t="s">
+      <c r="P96" s="39"/>
+    </row>
+    <row r="97" spans="1:17" s="42" customFormat="1">
+      <c r="B97" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="42" t="s">
         <v>775</v>
       </c>
-      <c r="E97" s="43" t="s">
+      <c r="E97" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="F97" s="43" t="s">
+      <c r="F97" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H97" s="43">
-        <v>0</v>
-      </c>
-      <c r="I97" s="46"/>
-      <c r="J97" s="45">
+      <c r="H97" s="42">
+        <v>0</v>
+      </c>
+      <c r="I97" s="45"/>
+      <c r="J97" s="44">
         <v>-30</v>
       </c>
-      <c r="K97" s="45">
+      <c r="K97" s="44">
         <v>30</v>
       </c>
-      <c r="L97" s="45">
-        <v>0</v>
-      </c>
-      <c r="M97" s="45">
+      <c r="L97" s="44">
+        <v>0</v>
+      </c>
+      <c r="M97" s="44">
         <f>(K97-J97)/6</f>
         <v>10</v>
       </c>
-      <c r="N97" s="45">
+      <c r="N97" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q97" s="43" t="s">
+      <c r="Q97" s="42" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="50" customFormat="1">
-      <c r="A98" s="50" t="b">
+    <row r="98" spans="1:17" s="49" customFormat="1">
+      <c r="A98" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="49" t="s">
         <v>776</v>
       </c>
-      <c r="C98" s="50" t="s">
+      <c r="C98" s="49" t="s">
         <v>777</v>
       </c>
-      <c r="D98" s="50" t="s">
+      <c r="D98" s="49" t="s">
         <v>777</v>
       </c>
-      <c r="E98" s="50" t="s">
+      <c r="E98" s="49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="43" customFormat="1">
-      <c r="B99" s="43" t="s">
+    <row r="99" spans="1:17" s="42" customFormat="1">
+      <c r="B99" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D99" s="43" t="s">
+      <c r="D99" s="42" t="s">
         <v>778</v>
       </c>
-      <c r="E99" s="43" t="s">
+      <c r="E99" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="F99" s="43" t="s">
+      <c r="F99" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H99" s="43">
-        <v>0</v>
-      </c>
-      <c r="I99" s="46"/>
-      <c r="J99" s="45">
+      <c r="H99" s="42">
+        <v>0</v>
+      </c>
+      <c r="I99" s="45"/>
+      <c r="J99" s="44">
         <v>-50</v>
       </c>
-      <c r="K99" s="45">
+      <c r="K99" s="44">
         <v>200</v>
       </c>
-      <c r="L99" s="45">
-        <v>0</v>
-      </c>
-      <c r="M99" s="45">
+      <c r="L99" s="44">
+        <v>0</v>
+      </c>
+      <c r="M99" s="44">
         <f>(K99-J99)/6</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="N99" s="45">
+      <c r="N99" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q99" s="43" t="s">
+      <c r="Q99" s="42" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="50" customFormat="1">
-      <c r="A100" s="50" t="b">
+    <row r="100" spans="1:17" s="49" customFormat="1">
+      <c r="A100" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="49" t="s">
         <v>780</v>
       </c>
-      <c r="D100" s="50" t="s">
+      <c r="D100" s="49" t="s">
         <v>780</v>
       </c>
-      <c r="E100" s="50" t="s">
+      <c r="E100" s="49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="43" customFormat="1">
-      <c r="B101" s="43" t="s">
+    <row r="101" spans="1:17" s="42" customFormat="1">
+      <c r="B101" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="42" t="s">
         <v>781</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="F101" s="43" t="s">
+      <c r="F101" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H101" s="43">
-        <v>0</v>
-      </c>
-      <c r="I101" s="46"/>
-      <c r="J101" s="45">
+      <c r="H101" s="42">
+        <v>0</v>
+      </c>
+      <c r="I101" s="45"/>
+      <c r="J101" s="44">
         <v>-50</v>
       </c>
-      <c r="K101" s="45">
+      <c r="K101" s="44">
         <v>100</v>
       </c>
-      <c r="L101" s="45">
-        <v>0</v>
-      </c>
-      <c r="M101" s="45">
+      <c r="L101" s="44">
+        <v>0</v>
+      </c>
+      <c r="M101" s="44">
         <f>(K101-J101)/6</f>
         <v>25</v>
       </c>
-      <c r="N101" s="45">
+      <c r="N101" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q101" s="43" t="s">
+      <c r="Q101" s="42" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="50" customFormat="1">
-      <c r="A102" s="50" t="b">
+    <row r="102" spans="1:17" s="49" customFormat="1">
+      <c r="A102" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="C102" s="50" t="s">
+      <c r="C102" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="D102" s="50" t="s">
+      <c r="D102" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="E102" s="50" t="s">
+      <c r="E102" s="49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -9778,43 +9920,43 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="43" customFormat="1">
-      <c r="B104" s="43" t="s">
+    <row r="104" spans="1:17" s="42" customFormat="1">
+      <c r="B104" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="43" t="s">
+      <c r="D104" s="42" t="s">
         <v>782</v>
       </c>
-      <c r="E104" s="43" t="s">
+      <c r="E104" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="F104" s="43" t="s">
+      <c r="F104" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G104" s="43" t="s">
+      <c r="G104" s="42" t="s">
         <v>783</v>
       </c>
-      <c r="H104" s="43">
-        <v>0</v>
-      </c>
-      <c r="I104" s="46"/>
-      <c r="J104" s="45">
+      <c r="H104" s="42">
+        <v>0</v>
+      </c>
+      <c r="I104" s="45"/>
+      <c r="J104" s="44">
         <v>-80</v>
       </c>
-      <c r="K104" s="45">
+      <c r="K104" s="44">
         <v>80</v>
       </c>
-      <c r="L104" s="45">
+      <c r="L104" s="44">
         <v>-1</v>
       </c>
-      <c r="M104" s="45">
+      <c r="M104" s="44">
         <f>(K104-J104)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="N104" s="45">
+      <c r="N104" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q104" s="43" t="s">
+      <c r="Q104" s="42" t="s">
         <v>754</v>
       </c>
     </row>
@@ -9955,102 +10097,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:17" s="38" customFormat="1">
-      <c r="A112" s="38" t="b">
+    <row r="112" spans="1:17" s="37" customFormat="1">
+      <c r="A112" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B112" s="38" t="s">
+      <c r="B112" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C112" s="38" t="s">
+      <c r="C112" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="D112" s="38" t="s">
+      <c r="D112" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="E112" s="38" t="s">
+      <c r="E112" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-    </row>
-    <row r="113" spans="2:17" s="43" customFormat="1">
-      <c r="B113" s="43" t="s">
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+    </row>
+    <row r="113" spans="2:17" s="42" customFormat="1">
+      <c r="B113" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="43" t="s">
+      <c r="D113" s="42" t="s">
         <v>801</v>
       </c>
-      <c r="E113" s="43" t="s">
+      <c r="E113" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="F113" s="43" t="s">
+      <c r="F113" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G113" s="43" t="s">
+      <c r="G113" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="H113" s="43">
+      <c r="H113" s="42">
         <v>1</v>
       </c>
-      <c r="I113" s="46"/>
-      <c r="J113" s="45">
+      <c r="I113" s="45"/>
+      <c r="J113" s="44">
         <v>-2</v>
       </c>
-      <c r="K113" s="45">
-        <v>2</v>
-      </c>
-      <c r="L113" s="45">
-        <v>0</v>
-      </c>
-      <c r="M113" s="45">
+      <c r="K113" s="44">
+        <v>2</v>
+      </c>
+      <c r="L113" s="44">
+        <v>0</v>
+      </c>
+      <c r="M113" s="44">
         <f>(K113-J113)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N113" s="45">
+      <c r="N113" s="44">
         <v>1</v>
       </c>
-      <c r="Q113" s="43" t="s">
+      <c r="Q113" s="42" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="114" spans="2:17" s="43" customFormat="1">
-      <c r="B114" s="43" t="s">
+    <row r="114" spans="2:17" s="42" customFormat="1">
+      <c r="B114" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D114" s="43" t="s">
+      <c r="D114" s="42" t="s">
         <v>803</v>
       </c>
-      <c r="E114" s="43" t="s">
+      <c r="E114" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="F114" s="43" t="s">
+      <c r="F114" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G114" s="43" t="s">
+      <c r="G114" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="H114" s="43">
+      <c r="H114" s="42">
         <v>-1</v>
       </c>
-      <c r="I114" s="46"/>
-      <c r="J114" s="45">
+      <c r="I114" s="45"/>
+      <c r="J114" s="44">
         <v>-2</v>
       </c>
-      <c r="K114" s="45">
-        <v>2</v>
-      </c>
-      <c r="L114" s="45">
-        <v>0</v>
-      </c>
-      <c r="M114" s="45">
+      <c r="K114" s="44">
+        <v>2</v>
+      </c>
+      <c r="L114" s="44">
+        <v>0</v>
+      </c>
+      <c r="M114" s="44">
         <f>(K114-J114)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N114" s="45">
+      <c r="N114" s="44">
         <v>1</v>
       </c>
-      <c r="Q114" s="43" t="s">
+      <c r="Q114" s="42" t="s">
         <v>754</v>
       </c>
     </row>
@@ -10557,416 +10699,941 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="52"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+      <c r="A2" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="56" t="s">
         <v>637</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="55" t="s">
         <v>622</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="55" t="s">
         <v>623</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="55" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="55" t="s">
         <v>625</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="55" t="s">
         <v>626</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="55" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
-      <c r="A3" s="14" t="s">
+      <c r="L2" s="55"/>
+    </row>
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+      <c r="A3" s="56" t="s">
         <v>628</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="56" t="s">
         <v>642</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="56" t="s">
         <v>631</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="56" t="s">
         <v>629</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="56" t="s">
         <v>619</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="56" t="s">
         <v>630</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="56" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="52" t="s">
         <v>644</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="52" t="s">
         <v>638</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="52" t="s">
         <v>634</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="52" t="s">
         <v>468</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="30" t="b">
+      <c r="F4" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="30" t="b">
+      <c r="G4" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="H4" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="52" t="s">
         <v>645</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="52" t="s">
         <v>639</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="52" t="s">
         <v>635</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="52" t="s">
         <v>468</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30" t="b">
+      <c r="F5" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="H5" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="52" t="s">
         <v>646</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="52" t="s">
         <v>641</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="52" t="s">
         <v>632</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="52" t="s">
         <v>468</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="30" t="b">
+      <c r="F6" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="30" t="b">
+      <c r="G6" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="H6" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="52" t="s">
         <v>647</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="52" t="s">
         <v>633</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="52" t="s">
         <v>468</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="30" t="b">
+      <c r="F7" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="30" t="b">
+      <c r="G7" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="H7" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="52" t="s">
+        <v>828</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52" t="s">
+        <v>829</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="52" t="s">
+        <v>830</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52" t="s">
+        <v>831</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="52" t="s">
+        <v>832</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52" t="s">
+        <v>833</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="52" t="s">
+        <v>834</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52" t="s">
+        <v>835</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="52" t="s">
+        <v>836</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52" t="s">
+        <v>837</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="52" t="s">
+        <v>838</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52" t="s">
+        <v>839</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="52" t="s">
+        <v>840</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52" t="s">
+        <v>841</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="52" t="s">
+        <v>842</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52" t="s">
+        <v>843</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="52" t="s">
+        <v>844</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52" t="s">
+        <v>845</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="52" t="s">
+        <v>846</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52" t="s">
+        <v>847</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="52" t="s">
+        <v>848</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52" t="s">
+        <v>849</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="52" t="s">
+        <v>850</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52" t="s">
+        <v>851</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="52" t="s">
+        <v>852</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52" t="s">
+        <v>853</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="52" t="s">
+        <v>854</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52" t="s">
+        <v>855</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="52" t="s">
+        <v>856</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52" t="s">
+        <v>857</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>858</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="52" t="s">
+        <v>859</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52" t="s">
+        <v>860</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>858</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="52" t="s">
+        <v>861</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52" t="s">
+        <v>862</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>858</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="52" t="s">
+        <v>863</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52" t="s">
+        <v>864</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>865</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="52" t="s">
         <v>706</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="52" t="s">
         <v>770</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D26" s="52" t="s">
         <v>707</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E26" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="30" t="b">
+      <c r="F26" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="30" t="b">
+      <c r="G26" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="30" t="s">
+      <c r="H26" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="52" t="s">
         <v>708</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30" t="s">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52" t="s">
         <v>771</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D27" s="52" t="s">
         <v>709</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E27" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="30" t="b">
+      <c r="F27" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="30" t="b">
+      <c r="G27" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="30" t="s">
+      <c r="H27" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="52" t="s">
         <v>796</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52" t="s">
         <v>792</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D28" s="52" t="s">
         <v>783</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E28" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="30" t="b">
+      <c r="F28" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="30" t="b">
+      <c r="G28" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="30" t="b">
+      <c r="H28" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="30" t="s">
+      <c r="I28" s="52">
+        <v>0</v>
+      </c>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="52" t="s">
         <v>797</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30" t="s">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52" t="s">
         <v>793</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D29" s="52" t="s">
         <v>783</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E29" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="30" t="b">
+      <c r="F29" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="30" t="b">
+      <c r="G29" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="30" t="b">
+      <c r="H29" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="30" t="s">
+      <c r="I29" s="52">
+        <v>0</v>
+      </c>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="52" t="s">
         <v>798</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52" t="s">
         <v>794</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D30" s="52" t="s">
         <v>783</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E30" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="30" t="b">
+      <c r="F30" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="30" t="b">
+      <c r="G30" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="30" t="b">
+      <c r="H30" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="30" t="s">
+      <c r="I30" s="52">
+        <v>0</v>
+      </c>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="52" t="s">
         <v>799</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30" t="s">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52" t="s">
         <v>795</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D31" s="52" t="s">
         <v>783</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E31" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="30" t="b">
+      <c r="F31" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="30" t="b">
+      <c r="G31" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="30" t="b">
+      <c r="H31" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="I31" s="52">
+        <v>0</v>
+      </c>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10987,19 +11654,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11018,7 +11685,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11039,7 +11706,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11062,7 +11729,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11085,7 +11752,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11108,7 +11775,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11131,7 +11798,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11154,7 +11821,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11177,7 +11844,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11200,7 +11867,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11223,7 +11890,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11242,7 +11909,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11263,7 +11930,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11286,7 +11953,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11309,7 +11976,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11332,7 +11999,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11355,7 +12022,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11378,7 +12045,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11401,7 +12068,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11424,7 +12091,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11447,7 +12114,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11466,7 +12133,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11489,7 +12156,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11512,7 +12179,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11535,7 +12202,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11558,7 +12225,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11581,7 +12248,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11604,7 +12271,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11627,7 +12294,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11650,7 +12317,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11673,7 +12340,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11692,7 +12359,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11713,7 +12380,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11736,7 +12403,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11759,7 +12426,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11782,7 +12449,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11805,7 +12472,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11828,7 +12495,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11851,7 +12518,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11874,7 +12541,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11897,7 +12564,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11916,7 +12583,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11937,7 +12604,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11960,7 +12627,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11983,7 +12650,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12006,7 +12673,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12029,7 +12696,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12052,7 +12719,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12075,7 +12742,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12098,7 +12765,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12121,7 +12788,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12140,7 +12807,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12161,7 +12828,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12184,7 +12851,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12207,7 +12874,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12230,7 +12897,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12253,7 +12920,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12276,7 +12943,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12299,7 +12966,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12322,7 +12989,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12345,7 +13012,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12364,7 +13031,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12385,7 +13052,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12410,7 +13077,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12433,7 +13100,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12456,7 +13123,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12479,7 +13146,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12502,7 +13169,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12525,7 +13192,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12548,7 +13215,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12571,7 +13238,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12594,7 +13261,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12613,7 +13280,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12634,7 +13301,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12657,7 +13324,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12682,7 +13349,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12705,7 +13372,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12728,7 +13395,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12751,7 +13418,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12774,7 +13441,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12797,7 +13464,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12820,7 +13487,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12843,7 +13510,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12866,7 +13533,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12889,7 +13556,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12912,7 +13579,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12931,7 +13598,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12954,7 +13621,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12977,7 +13644,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13000,7 +13667,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13023,7 +13690,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13046,7 +13713,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13069,7 +13736,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13092,7 +13759,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13115,7 +13782,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13138,7 +13805,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13161,7 +13828,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13180,7 +13847,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13205,7 +13872,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13224,7 +13891,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13245,7 +13912,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13270,7 +13937,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13289,7 +13956,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13312,7 +13979,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13337,7 +14004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13360,7 +14027,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13381,7 +14048,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13400,7 +14067,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13425,7 +14092,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13448,7 +14115,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13471,7 +14138,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13494,7 +14161,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13517,7 +14184,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13540,7 +14207,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13563,7 +14230,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13582,7 +14249,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13605,7 +14272,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13628,7 +14295,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13651,7 +14318,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13670,7 +14337,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13693,7 +14360,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13716,7 +14383,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13739,7 +14406,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13762,7 +14429,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13785,7 +14452,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13808,7 +14475,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13827,7 +14494,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13852,7 +14519,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13875,7 +14542,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13898,7 +14565,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13921,7 +14588,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13944,7 +14611,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13967,7 +14634,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13990,7 +14657,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14013,7 +14680,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14036,7 +14703,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14055,7 +14722,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14080,7 +14747,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14101,7 +14768,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14124,7 +14791,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14147,7 +14814,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14170,7 +14837,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14193,7 +14860,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14216,7 +14883,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14239,7 +14906,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14262,7 +14929,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14285,7 +14952,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14308,7 +14975,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14331,7 +14998,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14354,7 +15021,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14377,7 +15044,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14396,7 +15063,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14419,7 +15086,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14438,7 +15105,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14461,7 +15128,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14484,7 +15151,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14503,7 +15170,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14528,7 +15195,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14551,7 +15218,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14574,7 +15241,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14597,7 +15264,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14620,7 +15287,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14643,7 +15310,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14666,7 +15333,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14689,7 +15356,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14712,7 +15379,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14735,7 +15402,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14754,7 +15421,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14779,7 +15446,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14802,7 +15469,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14825,7 +15492,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14848,7 +15515,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14871,7 +15538,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14894,7 +15561,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14917,7 +15584,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14940,7 +15607,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14963,7 +15630,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14986,7 +15653,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15005,7 +15672,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15028,7 +15695,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15051,7 +15718,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15074,7 +15741,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15097,7 +15764,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15116,7 +15783,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15139,7 +15806,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15162,7 +15829,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15185,7 +15852,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15208,7 +15875,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15227,7 +15894,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15248,7 +15915,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15271,7 +15938,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15290,7 +15957,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15313,7 +15980,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15338,7 +16005,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15359,7 +16026,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15384,7 +16051,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15409,7 +16076,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15428,7 +16095,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15453,7 +16120,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15476,7 +16143,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15499,7 +16166,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15522,7 +16189,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15545,7 +16212,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15568,7 +16235,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15591,7 +16258,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15614,7 +16281,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15637,7 +16304,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15656,7 +16323,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15681,7 +16348,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15704,7 +16371,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15727,7 +16394,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15750,7 +16417,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15773,7 +16440,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15796,7 +16463,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15819,7 +16486,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15842,7 +16509,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15865,7 +16532,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15884,7 +16551,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15905,7 +16572,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15928,7 +16595,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15951,7 +16618,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15974,7 +16641,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15997,7 +16664,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16020,7 +16687,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16043,7 +16710,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16066,7 +16733,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16089,7 +16756,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16112,7 +16779,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16135,7 +16802,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16158,7 +16825,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16181,7 +16848,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16204,7 +16871,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16227,7 +16894,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16250,7 +16917,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16269,7 +16936,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16290,7 +16957,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16313,7 +16980,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16336,7 +17003,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16359,7 +17026,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16382,7 +17049,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16405,7 +17072,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16428,7 +17095,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16451,7 +17118,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16474,7 +17141,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16497,7 +17164,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16520,7 +17187,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16543,7 +17210,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16566,7 +17233,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16589,7 +17256,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16612,7 +17279,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16635,7 +17302,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16654,7 +17321,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16679,7 +17346,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16702,7 +17369,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16725,7 +17392,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16748,7 +17415,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16771,7 +17438,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16790,7 +17457,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16815,7 +17482,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16838,7 +17505,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16857,7 +17524,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16876,7 +17543,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16895,7 +17562,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16916,7 +17583,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16939,7 +17606,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16962,7 +17629,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16985,7 +17652,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17008,7 +17675,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17031,7 +17698,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17054,7 +17721,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17077,7 +17744,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17100,7 +17767,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17123,7 +17790,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17146,7 +17813,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17165,7 +17832,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17188,7 +17855,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17207,7 +17874,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17232,7 +17899,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17255,7 +17922,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17278,7 +17945,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17301,7 +17968,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17324,7 +17991,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17347,7 +18014,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17370,7 +18037,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17393,7 +18060,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17416,7 +18083,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17439,7 +18106,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17462,7 +18129,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17481,7 +18148,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17504,7 +18171,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17523,7 +18190,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17544,7 +18211,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17563,7 +18230,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17584,7 +18251,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17603,7 +18270,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17624,7 +18291,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17643,7 +18310,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17666,7 +18333,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17685,7 +18352,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17710,7 +18377,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17733,7 +18400,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17756,7 +18423,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17779,7 +18446,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17802,7 +18469,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17825,7 +18492,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17848,7 +18515,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17871,7 +18538,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17894,7 +18561,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17913,7 +18580,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17936,7 +18603,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17959,7 +18626,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17982,7 +18649,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18005,7 +18672,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18024,7 +18691,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18047,7 +18714,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18070,7 +18737,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18095,7 +18762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18114,7 +18781,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18139,7 +18806,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18162,7 +18829,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18181,7 +18848,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18202,7 +18869,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18223,7 +18890,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18246,7 +18913,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18265,7 +18932,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18284,7 +18951,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18309,7 +18976,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18666,7 +19333,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19029,7 +19696,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19157,14 +19824,14 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">

--- a/projects/office_calibration_rgenoud_14_Sys3.xlsx
+++ b/projects/office_calibration_rgenoud_14_Sys3.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$149</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="864">
   <si>
     <t>type</t>
   </si>
@@ -2299,27 +2299,9 @@
     <t>Files to include (relative to this spreadsheet or absolute path). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
-    <t>Calibrate South Window to Wall Ratio by Facade</t>
-  </si>
-  <si>
-    <t>South Window to Wall Ratio</t>
-  </si>
-  <si>
     <t>uniform_uncertain</t>
   </si>
   <si>
-    <t>Calibrate East Window to Wall Ratio by Facade</t>
-  </si>
-  <si>
-    <t>East Window to Wall Ratio</t>
-  </si>
-  <si>
-    <t>Calibrate West Window to Wall Ratio by Facade</t>
-  </si>
-  <si>
-    <t>West Window to Wall Ratio</t>
-  </si>
-  <si>
     <t>Lighting Power Reduction</t>
   </si>
   <si>
@@ -2639,6 +2621,18 @@
   </si>
   <si>
     <t>m2</t>
+  </si>
+  <si>
+    <t>Adjust Window to Wall Ratios</t>
+  </si>
+  <si>
+    <t>AdjustWindowToWallRatios</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio Multiplier</t>
+  </si>
+  <si>
+    <t>wwr_multiplier</t>
   </si>
 </sst>
 </file>
@@ -2831,7 +2825,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1836">
+  <cellStyleXfs count="1846">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4582,6 +4576,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4786,7 +4790,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1836">
+  <cellStyles count="1846">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5705,6 +5709,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1831" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1833" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1837" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1839" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1841" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1843" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1845" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6622,6 +6631,11 @@
     <cellStyle name="Hyperlink" xfId="1830" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1832" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1834" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1836" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1838" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1840" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1842" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1844" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7027,7 +7041,7 @@
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
@@ -7098,7 +7112,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -7109,7 +7123,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>747</v>
@@ -7120,7 +7134,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>747</v>
@@ -7344,13 +7358,13 @@
     </row>
     <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="A35" s="31" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B35" s="30">
         <v>1</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -7427,7 +7441,7 @@
         <v>699</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7458,11 +7472,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y231"/>
+  <dimension ref="A1:Y222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7478,7 +7492,7 @@
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
     <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="31"/>
     <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
@@ -7726,7 +7740,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7864,7 +7878,7 @@
         <v>0.25</v>
       </c>
       <c r="Q15" s="50" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="30" customFormat="1">
@@ -7920,7 +7934,7 @@
         <v>0.5</v>
       </c>
       <c r="Q17" s="50" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1">
@@ -8184,13 +8198,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E33" s="37" t="s">
         <v>68</v>
@@ -8203,10 +8217,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>64</v>
@@ -8231,7 +8245,7 @@
         <v>0.05</v>
       </c>
       <c r="Q34" s="42" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="42" customFormat="1">
@@ -8239,10 +8253,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>64</v>
@@ -8267,7 +8281,7 @@
         <v>0.05</v>
       </c>
       <c r="Q35" s="42" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="37" customFormat="1">
@@ -8275,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C36" s="37" t="s">
         <v>74</v>
@@ -8294,7 +8308,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>75</v>
@@ -8303,7 +8317,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="H37" s="42">
         <v>0</v>
@@ -8325,7 +8339,7 @@
         <v>5</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="37" customFormat="1">
@@ -8364,26 +8378,10 @@
         <v>0.4</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="M39" s="31">
-        <f>(K39-J39)/6</f>
-        <v>0.125</v>
-      </c>
-      <c r="N39" s="31">
-        <v>0.01</v>
-      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
       <c r="P39" s="39"/>
-      <c r="Q39" s="31" t="s">
-        <v>754</v>
-      </c>
     </row>
     <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
@@ -8471,26 +8469,10 @@
         <v>0.4</v>
       </c>
       <c r="I43" s="3"/>
-      <c r="J43" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="M43" s="31">
-        <f>(K43-J43)/6</f>
-        <v>0.125</v>
-      </c>
-      <c r="N43" s="31">
-        <v>0.01</v>
-      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
       <c r="P43" s="39"/>
-      <c r="Q43" s="31" t="s">
-        <v>754</v>
-      </c>
     </row>
     <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
@@ -8578,26 +8560,10 @@
         <v>0.4</v>
       </c>
       <c r="I47" s="3"/>
-      <c r="J47" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="M47" s="31">
-        <f>(K47-J47)/6</f>
-        <v>0.125</v>
-      </c>
-      <c r="N47" s="31">
-        <v>0.01</v>
-      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
       <c r="P47" s="39"/>
-      <c r="Q47" s="31" t="s">
-        <v>754</v>
-      </c>
     </row>
     <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
@@ -8685,26 +8651,10 @@
         <v>0.4</v>
       </c>
       <c r="I51" s="3"/>
-      <c r="J51" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="L51" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="M51" s="31">
-        <f>(K51-J51)/6</f>
-        <v>0.125</v>
-      </c>
-      <c r="N51" s="31">
-        <v>0.01</v>
-      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
       <c r="P51" s="39"/>
-      <c r="Q51" s="31" t="s">
-        <v>754</v>
-      </c>
     </row>
     <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
@@ -8825,7 +8775,7 @@
         <v>618</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -8843,7 +8793,7 @@
         <v>618</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="I58" s="31"/>
     </row>
@@ -8852,13 +8802,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E59" s="37" t="s">
         <v>68</v>
@@ -8871,16 +8821,16 @@
         <v>21</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F60" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="I60" s="31"/>
     </row>
@@ -8889,16 +8839,16 @@
         <v>22</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="F61" s="42" t="s">
         <v>619</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="H61" s="42">
         <v>1</v>
@@ -8921,7 +8871,7 @@
       </c>
       <c r="P61" s="46"/>
       <c r="Q61" s="42" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="37" customFormat="1">
@@ -8948,13 +8898,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>752</v>
+        <v>860</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>76</v>
+        <v>861</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>76</v>
+        <v>861</v>
       </c>
       <c r="E63" s="48" t="s">
         <v>68</v>
@@ -8965,35 +8915,39 @@
         <v>22</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>753</v>
+        <v>862</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>77</v>
+        <v>863</v>
       </c>
       <c r="F64" s="42" t="s">
         <v>64</v>
       </c>
       <c r="H64" s="42">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J64" s="42">
+        <f>0.05/H47</f>
+        <v>0.125</v>
+      </c>
+      <c r="K64" s="42">
+        <f>0.8/H43</f>
+        <v>2</v>
+      </c>
+      <c r="L64" s="42">
+        <f>AVERAGE(J64:K64)</f>
+        <v>1.0625</v>
+      </c>
+      <c r="M64" s="42">
+        <f>(K64-J64)/6</f>
+        <v>0.3125</v>
+      </c>
+      <c r="N64" s="42">
+        <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="K64" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="L64" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="M64" s="42">
-        <f>(K64+J64)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N64" s="42">
-        <v>0.05</v>
-      </c>
       <c r="Q64" s="42" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="30" customFormat="1">
@@ -9001,7 +8955,7 @@
         <v>21</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>78</v>
+        <v>666</v>
       </c>
       <c r="E65" s="30" t="s">
         <v>79</v>
@@ -9009,81 +8963,85 @@
       <c r="F65" s="30" t="s">
         <v>64</v>
       </c>
+      <c r="G65" s="30" t="s">
+        <v>667</v>
+      </c>
       <c r="H65" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" s="30" t="s">
+    <row r="66" spans="1:17" s="48" customFormat="1">
+      <c r="A66" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B66" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="30" customFormat="1">
+      <c r="B67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I66" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="48" customFormat="1">
-      <c r="A67" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B67" s="48" t="s">
-        <v>755</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="48" t="s">
-        <v>68</v>
-      </c>
+      <c r="H67" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O67" s="31"/>
     </row>
     <row r="68" spans="1:17" s="42" customFormat="1">
       <c r="B68" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="42" t="s">
-        <v>756</v>
+      <c r="D68" s="43" t="s">
+        <v>818</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F68" s="42" t="s">
         <v>64</v>
       </c>
       <c r="H68" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="J68" s="42">
-        <v>0.05</v>
-      </c>
-      <c r="K68" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="L68" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="M68" s="42">
-        <f>(K68+J68)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N68" s="42">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="J68" s="44">
+        <v>-100</v>
+      </c>
+      <c r="K68" s="44">
+        <v>100</v>
+      </c>
+      <c r="L68" s="44">
+        <v>0</v>
+      </c>
+      <c r="M68" s="44">
+        <f>(K68-J68)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N68" s="44">
+        <v>2.5</v>
       </c>
       <c r="Q68" s="42" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="30" customFormat="1">
@@ -9091,89 +9049,86 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>78</v>
+        <v>810</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>79</v>
+        <v>811</v>
       </c>
       <c r="F69" s="30" t="s">
         <v>64</v>
       </c>
       <c r="H69" s="30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="30" customFormat="1">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F70" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="I70" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="48" customFormat="1">
-      <c r="A71" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B71" s="48" t="s">
-        <v>757</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="42" customFormat="1">
-      <c r="B72" s="42" t="s">
+    </row>
+    <row r="70" spans="1:17" s="42" customFormat="1">
+      <c r="B70" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="42" t="s">
-        <v>758</v>
-      </c>
-      <c r="E72" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F72" s="42" t="s">
+      <c r="D70" s="43" t="s">
+        <v>813</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="F70" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H72" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="J72" s="42">
+      <c r="H70" s="42">
+        <v>0</v>
+      </c>
+      <c r="J70" s="44">
+        <v>0</v>
+      </c>
+      <c r="K70" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="L70" s="44">
         <v>0.05</v>
       </c>
-      <c r="K72" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="L72" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="M72" s="42">
-        <f>(K72+J72)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N72" s="42">
-        <v>0.05</v>
-      </c>
-      <c r="Q72" s="42" t="s">
-        <v>754</v>
+      <c r="M70" s="44">
+        <f>(K70-J70)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="N70" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="Q70" s="42" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="30" customFormat="1">
+      <c r="B71" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H71" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="30" customFormat="1">
+      <c r="B72" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H72" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="30" customFormat="1">
@@ -9181,16 +9136,16 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="F73" s="30" t="s">
         <v>64</v>
       </c>
       <c r="H73" s="30">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="30" customFormat="1">
@@ -9198,726 +9153,722 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F74" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="30" customFormat="1">
+      <c r="B75" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H75" s="30">
+        <v>1</v>
+      </c>
+      <c r="O75" s="31"/>
+    </row>
+    <row r="76" spans="1:17" s="49" customFormat="1">
+      <c r="A76" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="I74" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="48" customFormat="1">
-      <c r="A75" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="B75" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" s="30" customFormat="1">
-      <c r="B76" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H76" s="30" t="s">
+      <c r="G77" s="30"/>
+      <c r="H77" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I76" s="30" t="s">
+      <c r="I77" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:17" s="42" customFormat="1">
-      <c r="B77" s="42" t="s">
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="P77" s="39"/>
+    </row>
+    <row r="78" spans="1:17" s="42" customFormat="1">
+      <c r="B78" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="43" t="s">
-        <v>824</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F77" s="42" t="s">
+      <c r="D78" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="E78" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H77" s="42">
-        <v>0</v>
-      </c>
-      <c r="J77" s="44">
-        <v>-100</v>
-      </c>
-      <c r="K77" s="44">
-        <v>100</v>
-      </c>
-      <c r="L77" s="44">
-        <v>0</v>
-      </c>
-      <c r="M77" s="44">
-        <f>(K77-J77)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N77" s="44">
+      <c r="H78" s="42">
+        <v>0</v>
+      </c>
+      <c r="I78" s="45"/>
+      <c r="J78" s="44">
+        <v>-60</v>
+      </c>
+      <c r="K78" s="44">
+        <v>60</v>
+      </c>
+      <c r="L78" s="44">
+        <v>-1</v>
+      </c>
+      <c r="M78" s="44">
+        <f>(K78-J78)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N78" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q77" s="42" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" s="30" customFormat="1">
-      <c r="B78" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="F78" s="30" t="s">
+      <c r="P78" s="46"/>
+      <c r="Q78" s="42" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H78" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" s="42" customFormat="1">
-      <c r="B79" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>819</v>
-      </c>
-      <c r="E79" s="42" t="s">
-        <v>818</v>
-      </c>
-      <c r="F79" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H79" s="42">
-        <v>0</v>
-      </c>
-      <c r="J79" s="44">
-        <v>0</v>
-      </c>
-      <c r="K79" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="L79" s="44">
-        <v>0.05</v>
-      </c>
-      <c r="M79" s="44">
-        <f>(K79-J79)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="N79" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="Q79" s="42" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" s="30" customFormat="1">
+      <c r="G79" s="30"/>
+      <c r="H79" s="30">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="P79" s="39"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="30"/>
       <c r="B80" s="30" t="s">
         <v>21</v>
       </c>
+      <c r="C80" s="30"/>
       <c r="D80" s="30" t="s">
-        <v>821</v>
+        <v>49</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>820</v>
+        <v>50</v>
       </c>
       <c r="F80" s="30" t="s">
         <v>64</v>
       </c>
+      <c r="G80" s="30"/>
       <c r="H80" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" s="30" customFormat="1">
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="P80" s="39"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
       </c>
+      <c r="C81" s="30"/>
       <c r="D81" s="30" t="s">
-        <v>823</v>
+        <v>51</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>822</v>
+        <v>52</v>
       </c>
       <c r="F81" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="P81" s="39"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="P82" s="39"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="30"/>
+      <c r="B83" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30">
+        <v>15</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="P83" s="39"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="30"/>
+      <c r="B84" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F84" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H81" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" s="30" customFormat="1">
-      <c r="B82" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E82" s="30" t="s">
+      <c r="G84" s="30"/>
+      <c r="H84" s="30">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="P84" s="39"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="30"/>
+      <c r="B85" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30">
+        <v>1</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="P85" s="39"/>
+    </row>
+    <row r="86" spans="1:17" s="49" customFormat="1">
+      <c r="A86" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="C86" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="D86" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I87" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="P87" s="39"/>
+    </row>
+    <row r="88" spans="1:17" s="42" customFormat="1">
+      <c r="B88" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="E88" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="F88" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H88" s="42">
+        <v>0</v>
+      </c>
+      <c r="I88" s="45"/>
+      <c r="J88" s="44">
+        <v>-30</v>
+      </c>
+      <c r="K88" s="44">
+        <v>30</v>
+      </c>
+      <c r="L88" s="44">
+        <v>0</v>
+      </c>
+      <c r="M88" s="44">
+        <f>(K88-J88)/6</f>
+        <v>10</v>
+      </c>
+      <c r="N88" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="Q88" s="42" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="49" customFormat="1">
+      <c r="A89" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>770</v>
+      </c>
+      <c r="C89" s="49" t="s">
+        <v>771</v>
+      </c>
+      <c r="D89" s="49" t="s">
+        <v>771</v>
+      </c>
+      <c r="E89" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="42" customFormat="1">
+      <c r="B90" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="E90" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="F90" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H90" s="42">
+        <v>0</v>
+      </c>
+      <c r="I90" s="45"/>
+      <c r="J90" s="44">
+        <v>-50</v>
+      </c>
+      <c r="K90" s="44">
+        <v>200</v>
+      </c>
+      <c r="L90" s="44">
+        <v>0</v>
+      </c>
+      <c r="M90" s="44">
+        <f>(K90-J90)/6</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="N90" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="Q90" s="42" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="49" customFormat="1">
+      <c r="A91" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>773</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="E91" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="42" customFormat="1">
+      <c r="B92" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="E92" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H92" s="42">
+        <v>0</v>
+      </c>
+      <c r="I92" s="45"/>
+      <c r="J92" s="44">
+        <v>-50</v>
+      </c>
+      <c r="K92" s="44">
+        <v>100</v>
+      </c>
+      <c r="L92" s="44">
+        <v>0</v>
+      </c>
+      <c r="M92" s="44">
+        <f>(K92-J92)/6</f>
+        <v>25</v>
+      </c>
+      <c r="N92" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="Q92" s="42" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="49" customFormat="1">
+      <c r="A93" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="30" customFormat="1">
+      <c r="B94" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I94" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="42" customFormat="1">
+      <c r="B95" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="E95" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="F95" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G95" s="42" t="s">
+        <v>777</v>
+      </c>
+      <c r="H95" s="42">
+        <v>0</v>
+      </c>
+      <c r="I95" s="45"/>
+      <c r="J95" s="44">
+        <v>-80</v>
+      </c>
+      <c r="K95" s="44">
+        <v>80</v>
+      </c>
+      <c r="L95" s="44">
+        <v>-1</v>
+      </c>
+      <c r="M95" s="44">
+        <f>(K95-J95)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="N95" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="Q95" s="42" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="30" customFormat="1">
+      <c r="B96" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E96" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="30" t="s">
+      <c r="F96" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H82" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" s="30" customFormat="1">
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E83" s="30" t="s">
+      <c r="G96" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="H96" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" s="30" customFormat="1">
+      <c r="B97" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="H97" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="30" customFormat="1">
+      <c r="B98" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="H98" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="30" customFormat="1">
+      <c r="B99" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H99" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="30" customFormat="1">
+      <c r="B100" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="H100" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="30" customFormat="1">
+      <c r="B101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="E101" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F101" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H83" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" s="30" customFormat="1">
-      <c r="B84" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E84" s="30" t="s">
+      <c r="G101" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="H101" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" s="30" customFormat="1">
+      <c r="B102" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="E102" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F84" s="30" t="s">
+      <c r="F102" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H84" s="30">
+      <c r="G102" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="H102" s="30">
         <v>1</v>
       </c>
-      <c r="O84" s="31"/>
-    </row>
-    <row r="85" spans="1:17" s="49" customFormat="1">
-      <c r="A85" s="49" t="b">
+    </row>
+    <row r="103" spans="1:17" s="49" customFormat="1">
+      <c r="A103" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B85" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="49" t="s">
+      <c r="B103" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" s="49" t="s">
+        <v>794</v>
+      </c>
+      <c r="D103" s="49" t="s">
+        <v>794</v>
+      </c>
+      <c r="E103" s="49" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F86" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I86" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="P86" s="39"/>
-    </row>
-    <row r="87" spans="1:17" s="42" customFormat="1">
-      <c r="B87" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="42" t="s">
-        <v>759</v>
-      </c>
-      <c r="E87" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="F87" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H87" s="42">
-        <v>0</v>
-      </c>
-      <c r="I87" s="45"/>
-      <c r="J87" s="44">
-        <v>-60</v>
-      </c>
-      <c r="K87" s="44">
-        <v>60</v>
-      </c>
-      <c r="L87" s="44">
-        <v>-1</v>
-      </c>
-      <c r="M87" s="44">
-        <f>(K87-J87)/6</f>
-        <v>20</v>
-      </c>
-      <c r="N87" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="P87" s="46"/>
-      <c r="Q87" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" s="30"/>
-      <c r="D88" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30">
-        <v>0</v>
-      </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="P88" s="39"/>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E89" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F89" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-      <c r="P89" s="39"/>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E90" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F90" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="P90" s="39"/>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="30"/>
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F91" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="P91" s="39"/>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E92" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F92" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30">
-        <v>15</v>
-      </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="P92" s="39"/>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F93" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30">
-        <v>0</v>
-      </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-      <c r="P93" s="39"/>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F94" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30">
-        <v>1</v>
-      </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="P94" s="39"/>
-    </row>
-    <row r="95" spans="1:17" s="49" customFormat="1">
-      <c r="A95" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B95" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="C95" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="D95" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="E95" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I96" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="P96" s="39"/>
-    </row>
-    <row r="97" spans="1:17" s="42" customFormat="1">
-      <c r="B97" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="42" t="s">
-        <v>775</v>
-      </c>
-      <c r="E97" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="F97" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H97" s="42">
-        <v>0</v>
-      </c>
-      <c r="I97" s="45"/>
-      <c r="J97" s="44">
-        <v>-30</v>
-      </c>
-      <c r="K97" s="44">
-        <v>30</v>
-      </c>
-      <c r="L97" s="44">
-        <v>0</v>
-      </c>
-      <c r="M97" s="44">
-        <f>(K97-J97)/6</f>
-        <v>10</v>
-      </c>
-      <c r="N97" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="Q97" s="42" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" s="49" customFormat="1">
-      <c r="A98" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B98" s="49" t="s">
-        <v>776</v>
-      </c>
-      <c r="C98" s="49" t="s">
-        <v>777</v>
-      </c>
-      <c r="D98" s="49" t="s">
-        <v>777</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" s="42" customFormat="1">
-      <c r="B99" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="42" t="s">
-        <v>778</v>
-      </c>
-      <c r="E99" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="F99" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H99" s="42">
-        <v>0</v>
-      </c>
-      <c r="I99" s="45"/>
-      <c r="J99" s="44">
-        <v>-50</v>
-      </c>
-      <c r="K99" s="44">
-        <v>200</v>
-      </c>
-      <c r="L99" s="44">
-        <v>0</v>
-      </c>
-      <c r="M99" s="44">
-        <f>(K99-J99)/6</f>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="N99" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="Q99" s="42" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="49" customFormat="1">
-      <c r="A100" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="49" t="s">
-        <v>779</v>
-      </c>
-      <c r="C100" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D100" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="E100" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="42" customFormat="1">
-      <c r="B101" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="42" t="s">
-        <v>781</v>
-      </c>
-      <c r="E101" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="F101" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H101" s="42">
-        <v>0</v>
-      </c>
-      <c r="I101" s="45"/>
-      <c r="J101" s="44">
-        <v>-50</v>
-      </c>
-      <c r="K101" s="44">
-        <v>100</v>
-      </c>
-      <c r="L101" s="44">
-        <v>0</v>
-      </c>
-      <c r="M101" s="44">
-        <f>(K101-J101)/6</f>
-        <v>25</v>
-      </c>
-      <c r="N101" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="Q101" s="42" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" s="49" customFormat="1">
-      <c r="A102" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B102" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="C102" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="D102" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="E102" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" s="30" customFormat="1">
-      <c r="B103" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E103" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H103" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I103" s="30" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="42" customFormat="1">
@@ -9925,348 +9876,188 @@
         <v>22</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="F104" s="42" t="s">
         <v>64</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="H104" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" s="45"/>
       <c r="J104" s="44">
-        <v>-80</v>
+        <v>-2</v>
       </c>
       <c r="K104" s="44">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="L104" s="44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M104" s="44">
         <f>(K104-J104)/6</f>
-        <v>26.666666666666668</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N104" s="44">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q104" s="42" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" s="30" customFormat="1">
-      <c r="B105" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F105" s="30" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="42" customFormat="1">
+      <c r="B105" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="42" t="s">
+        <v>797</v>
+      </c>
+      <c r="E105" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F105" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G105" s="30" t="s">
-        <v>783</v>
-      </c>
-      <c r="H105" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" s="30" customFormat="1">
-      <c r="B106" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="E106" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G106" s="30" t="s">
-        <v>783</v>
-      </c>
-      <c r="H106" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" s="30" customFormat="1">
-      <c r="B107" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="30" t="s">
-        <v>786</v>
-      </c>
-      <c r="E107" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F107" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G107" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="H107" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" s="30" customFormat="1">
-      <c r="B108" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="E108" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F108" s="30" t="s">
+      <c r="G105" s="42" t="s">
+        <v>796</v>
+      </c>
+      <c r="H105" s="42">
+        <v>-1</v>
+      </c>
+      <c r="I105" s="45"/>
+      <c r="J105" s="44">
+        <v>-2</v>
+      </c>
+      <c r="K105" s="44">
+        <v>2</v>
+      </c>
+      <c r="L105" s="44">
+        <v>0</v>
+      </c>
+      <c r="M105" s="44">
+        <f>(K105-J105)/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N105" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="42" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="B106" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F106" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H108" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" s="30" customFormat="1">
-      <c r="B109" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="E109" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F109" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G109" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="H109" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" s="30" customFormat="1">
-      <c r="B110" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F110" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G110" s="30" t="s">
-        <v>783</v>
-      </c>
-      <c r="H110" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" s="30" customFormat="1">
-      <c r="B111" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G111" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="H111" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" s="37" customFormat="1">
-      <c r="A112" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B112" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>800</v>
-      </c>
-      <c r="D112" s="37" t="s">
-        <v>800</v>
-      </c>
-      <c r="E112" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-    </row>
-    <row r="113" spans="2:17" s="42" customFormat="1">
-      <c r="B113" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D113" s="42" t="s">
-        <v>801</v>
-      </c>
-      <c r="E113" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="F113" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G113" s="42" t="s">
-        <v>802</v>
-      </c>
-      <c r="H113" s="42">
-        <v>1</v>
-      </c>
-      <c r="I113" s="45"/>
-      <c r="J113" s="44">
-        <v>-2</v>
-      </c>
-      <c r="K113" s="44">
-        <v>2</v>
-      </c>
-      <c r="L113" s="44">
-        <v>0</v>
-      </c>
-      <c r="M113" s="44">
-        <f>(K113-J113)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N113" s="44">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="42" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="114" spans="2:17" s="42" customFormat="1">
-      <c r="B114" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D114" s="42" t="s">
-        <v>803</v>
-      </c>
-      <c r="E114" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="F114" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G114" s="42" t="s">
-        <v>802</v>
-      </c>
-      <c r="H114" s="42">
-        <v>-1</v>
-      </c>
-      <c r="I114" s="45"/>
-      <c r="J114" s="44">
-        <v>-2</v>
-      </c>
-      <c r="K114" s="44">
-        <v>2</v>
-      </c>
-      <c r="L114" s="44">
-        <v>0</v>
-      </c>
-      <c r="M114" s="44">
-        <f>(K114-J114)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N114" s="44">
-        <v>1</v>
-      </c>
-      <c r="Q114" s="42" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="115" spans="2:17">
-      <c r="B115" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="31" t="s">
-        <v>804</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F115" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H115" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-    </row>
-    <row r="116" spans="2:17">
+      <c r="H106" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+    </row>
+    <row r="113" spans="8:9">
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+    </row>
+    <row r="114" spans="8:9">
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
+    </row>
+    <row r="115" spans="8:9">
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+    </row>
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="2:17">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="2:17">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="2:17">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="2:17">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="2:17">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="2:17">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="2:17">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="2:17">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="2:17">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="2:17">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="2:17">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="2:17">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
@@ -10646,44 +10437,8 @@
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9">
-      <c r="H223" s="31"/>
-      <c r="I223" s="31"/>
-    </row>
-    <row r="224" spans="8:9">
-      <c r="H224" s="31"/>
-      <c r="I224" s="31"/>
-    </row>
-    <row r="225" spans="8:9">
-      <c r="H225" s="31"/>
-      <c r="I225" s="31"/>
-    </row>
-    <row r="226" spans="8:9">
-      <c r="H226" s="31"/>
-      <c r="I226" s="31"/>
-    </row>
-    <row r="227" spans="8:9">
-      <c r="H227" s="31"/>
-      <c r="I227" s="31"/>
-    </row>
-    <row r="228" spans="8:9">
-      <c r="H228" s="31"/>
-      <c r="I228" s="31"/>
-    </row>
-    <row r="229" spans="8:9">
-      <c r="H229" s="31"/>
-      <c r="I229" s="31"/>
-    </row>
-    <row r="230" spans="8:9">
-      <c r="H230" s="31"/>
-      <c r="I230" s="31"/>
-    </row>
-    <row r="231" spans="8:9">
-      <c r="H231" s="31"/>
-      <c r="I231" s="31"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:Z158"/>
+  <autoFilter ref="A2:Z149"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
@@ -10929,11 +10684,11 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="52" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B8" s="52"/>
       <c r="C8" s="52" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>468</v>
@@ -10957,11 +10712,11 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="52" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="52" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>468</v>
@@ -10985,11 +10740,11 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="52" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B10" s="52"/>
       <c r="C10" s="52" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>468</v>
@@ -11013,11 +10768,11 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="52" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="52" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>468</v>
@@ -11041,11 +10796,11 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="52" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="52" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>468</v>
@@ -11069,11 +10824,11 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="52" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="52" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>468</v>
@@ -11097,11 +10852,11 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="52" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="52" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>468</v>
@@ -11125,11 +10880,11 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="52" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B15" s="52"/>
       <c r="C15" s="52" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>468</v>
@@ -11153,11 +10908,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="52" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="52" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>468</v>
@@ -11181,11 +10936,11 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="52" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B17" s="52"/>
       <c r="C17" s="52" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>468</v>
@@ -11209,11 +10964,11 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="52" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B18" s="52"/>
       <c r="C18" s="52" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>468</v>
@@ -11237,11 +10992,11 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="52" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="52" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>468</v>
@@ -11265,11 +11020,11 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="52" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>468</v>
@@ -11293,11 +11048,11 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="52" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="52" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>468</v>
@@ -11321,14 +11076,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="52" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="52" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>64</v>
@@ -11349,14 +11104,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="52" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B23" s="52"/>
       <c r="C23" s="52" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>64</v>
@@ -11377,14 +11132,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="52" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="52" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>64</v>
@@ -11405,14 +11160,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="52" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="52" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E25" s="52" t="s">
         <v>64</v>
@@ -11437,7 +11192,7 @@
       </c>
       <c r="B26" s="52"/>
       <c r="C26" s="52" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>707</v>
@@ -11465,7 +11220,7 @@
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="52" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D27" s="52" t="s">
         <v>709</v>
@@ -11489,14 +11244,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="52" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="52" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E28" s="52" t="s">
         <v>64</v>
@@ -11519,14 +11274,14 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="52" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="52" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E29" s="52" t="s">
         <v>64</v>
@@ -11549,14 +11304,14 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="52" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B30" s="52"/>
       <c r="C30" s="52" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E30" s="52" t="s">
         <v>64</v>
@@ -11579,14 +11334,14 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="52" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B31" s="52"/>
       <c r="C31" s="52" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E31" s="52" t="s">
         <v>64</v>

--- a/projects/office_calibration_rgenoud_14_Sys3.xlsx
+++ b/projects/office_calibration_rgenoud_14_Sys3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2596,30 +2596,18 @@
     <t>Unmet Cooling Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
     <t>hrs</t>
   </si>
   <si>
     <t>Unmet Heating Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
     <t>Total Unmet Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
     <t>Building Area</t>
   </si>
   <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
@@ -2633,6 +2621,18 @@
   </si>
   <si>
     <t>wwr_multiplier</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_cooling</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_heating</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_hours</t>
+  </si>
+  <si>
+    <t>standard_reports.total_building_area</t>
   </si>
 </sst>
 </file>
@@ -7474,7 +7474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
@@ -8898,13 +8898,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E63" s="48" t="s">
         <v>68</v>
@@ -8915,10 +8915,10 @@
         <v>22</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F64" s="42" t="s">
         <v>64</v>
@@ -10456,9 +10456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11079,11 +11079,11 @@
         <v>850</v>
       </c>
       <c r="B22" s="52"/>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="D22" s="52" t="s">
         <v>851</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>852</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>64</v>
@@ -11104,14 +11104,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="52" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B23" s="52"/>
-      <c r="C23" s="52" t="s">
-        <v>854</v>
+      <c r="C23" s="30" t="s">
+        <v>861</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>64</v>
@@ -11132,14 +11132,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="52" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B24" s="52"/>
-      <c r="C24" s="52" t="s">
-        <v>856</v>
+      <c r="C24" s="30" t="s">
+        <v>862</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>64</v>
@@ -11160,14 +11160,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="52" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B25" s="52"/>
-      <c r="C25" s="52" t="s">
-        <v>858</v>
+      <c r="C25" s="30" t="s">
+        <v>863</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E25" s="52" t="s">
         <v>64</v>
